--- a/Data/Storage/2018_storage_minus80_information.xlsx
+++ b/Data/Storage/2018_storage_minus80_information.xlsx
@@ -1,24 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hannahchu\Documents\GitHub\Proteome_stability_project\Data\Storage\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189E1E6D-0244-4906-9B76-6C16578B0065}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28705"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8715" yWindow="465" windowWidth="38235" windowHeight="23325" activeTab="2" xr2:uid="{11D8066D-8F91-E240-B83C-274814A92F49}"/>
+    <workbookView xWindow="1020" yWindow="0" windowWidth="25360" windowHeight="14640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="3" r:id="rId1"/>
     <sheet name="R1_P1" sheetId="14" r:id="rId2"/>
     <sheet name="R3_P6" sheetId="2" r:id="rId3"/>
+    <sheet name="R3_P7" sheetId="15" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -27,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
   <si>
     <t>Date</t>
   </si>
@@ -99,12 +97,60 @@
   </si>
   <si>
     <t>50uL p86 (1-5)</t>
+  </si>
+  <si>
+    <t>2018-07-01</t>
+  </si>
+  <si>
+    <t>DSPR Cohorts</t>
+  </si>
+  <si>
+    <t>R3_P7</t>
+  </si>
+  <si>
+    <t>vials with DSPR lines per cohort</t>
+  </si>
+  <si>
+    <t>C1A7</t>
+  </si>
+  <si>
+    <t>C1A2</t>
+  </si>
+  <si>
+    <t>C1B3</t>
+  </si>
+  <si>
+    <t>C1A5</t>
+  </si>
+  <si>
+    <t>C1A6</t>
+  </si>
+  <si>
+    <t>C1A4</t>
+  </si>
+  <si>
+    <t>C1A1</t>
+  </si>
+  <si>
+    <t>C1B6</t>
+  </si>
+  <si>
+    <t>C1B4</t>
+  </si>
+  <si>
+    <t>C1A3</t>
+  </si>
+  <si>
+    <t>C1B7</t>
+  </si>
+  <si>
+    <t>SURF NB#001 pg 92</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -154,16 +200,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -171,7 +217,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -180,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -189,6 +235,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -251,7 +303,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -303,7 +355,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -497,88 +549,93 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62AA3223-7459-4543-B6A5-A6ABC614FE59}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="23" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="10.875" style="4"/>
+    <col min="1" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1">
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5546B438-9FC4-4E48-82EF-1ECCE0EBABA4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.375" defaultRowHeight="45.95" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.33203125" defaultRowHeight="46" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="26" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.375" style="2"/>
-    <col min="3" max="3" width="19.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="2"/>
+    <col min="3" max="3" width="19.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="21" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="15.375" style="2"/>
+    <col min="6" max="16384" width="15.33203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="46" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="46" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="46" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -586,22 +643,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="46" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="46" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="46" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="46" customHeight="1">
       <c r="B8" s="3"/>
       <c r="C8" s="3">
         <v>1</v>
@@ -634,7 +691,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="46" customHeight="1">
       <c r="B9" s="3">
         <v>1</v>
       </c>
@@ -649,7 +706,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="46" customHeight="1">
       <c r="B10" s="3">
         <v>2</v>
       </c>
@@ -664,7 +721,7 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="46" customHeight="1">
       <c r="B11" s="3">
         <v>3</v>
       </c>
@@ -679,7 +736,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="46" customHeight="1">
       <c r="B12" s="3">
         <v>4</v>
       </c>
@@ -694,7 +751,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="46" customHeight="1">
       <c r="B13" s="3">
         <v>5</v>
       </c>
@@ -709,7 +766,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="46" customHeight="1">
       <c r="B14" s="3">
         <v>6</v>
       </c>
@@ -724,7 +781,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="46" customHeight="1">
       <c r="B15" s="3">
         <v>7</v>
       </c>
@@ -739,7 +796,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="46" customHeight="1">
       <c r="B16" s="3">
         <v>8</v>
       </c>
@@ -754,7 +811,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="2:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" ht="46" customHeight="1">
       <c r="B17" s="3">
         <v>9</v>
       </c>
@@ -769,7 +826,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="2:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12" ht="46" customHeight="1">
       <c r="B18" s="3">
         <v>10</v>
       </c>
@@ -784,7 +841,7 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="2:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:12" ht="46" customHeight="1">
       <c r="B19" s="5" t="s">
         <v>6</v>
       </c>
@@ -805,29 +862,34 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5409961-BC8A-FB45-B43E-30E9D7F7D292}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.375" defaultRowHeight="45.95" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.33203125" defaultRowHeight="46" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="26" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.375" style="2"/>
-    <col min="3" max="3" width="19.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="2"/>
+    <col min="3" max="3" width="19.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="21" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.5" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.5" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="15.375" style="2"/>
+    <col min="10" max="16384" width="15.33203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="46" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -835,7 +897,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="46" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -843,7 +905,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="46" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -851,12 +913,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="46" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="46" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -864,7 +926,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="46" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -872,7 +934,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="46" customHeight="1">
       <c r="B8" s="3"/>
       <c r="C8" s="3">
         <v>1</v>
@@ -905,7 +967,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="46" customHeight="1">
       <c r="B9" s="3">
         <v>1</v>
       </c>
@@ -934,7 +996,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="46" customHeight="1">
       <c r="B10" s="3">
         <v>2</v>
       </c>
@@ -949,7 +1011,7 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="46" customHeight="1">
       <c r="B11" s="3">
         <v>3</v>
       </c>
@@ -964,7 +1026,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="46" customHeight="1">
       <c r="B12" s="3">
         <v>4</v>
       </c>
@@ -979,7 +1041,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="46" customHeight="1">
       <c r="B13" s="3">
         <v>5</v>
       </c>
@@ -994,7 +1056,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="46" customHeight="1">
       <c r="B14" s="3">
         <v>6</v>
       </c>
@@ -1009,7 +1071,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="46" customHeight="1">
       <c r="B15" s="3">
         <v>7</v>
       </c>
@@ -1024,7 +1086,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="46" customHeight="1">
       <c r="B16" s="3">
         <v>8</v>
       </c>
@@ -1039,7 +1101,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="2:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" ht="46" customHeight="1">
       <c r="B17" s="3">
         <v>9</v>
       </c>
@@ -1054,7 +1116,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="2:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12" ht="46" customHeight="1">
       <c r="B18" s="3">
         <v>10</v>
       </c>
@@ -1069,7 +1131,7 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="2:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:12" ht="46" customHeight="1">
       <c r="B19" s="5" t="s">
         <v>6</v>
       </c>
@@ -1090,5 +1152,305 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="J5" activeCellId="1" sqref="B6 J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.33203125" defaultRowHeight="46" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="26" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="2"/>
+    <col min="3" max="3" width="19.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="21" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="15.33203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="46" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="46" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="46" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="46" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="46" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="46" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="46" customHeight="1">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3">
+        <v>4</v>
+      </c>
+      <c r="G8" s="3">
+        <v>5</v>
+      </c>
+      <c r="H8" s="3">
+        <v>6</v>
+      </c>
+      <c r="I8" s="3">
+        <v>7</v>
+      </c>
+      <c r="J8" s="3">
+        <v>8</v>
+      </c>
+      <c r="K8" s="3">
+        <v>9</v>
+      </c>
+      <c r="L8" s="7"/>
+    </row>
+    <row r="9" spans="1:12" ht="46" customHeight="1">
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" s="7"/>
+    </row>
+    <row r="10" spans="1:12" ht="46" customHeight="1">
+      <c r="B10" s="3">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="7"/>
+    </row>
+    <row r="11" spans="1:12" ht="46" customHeight="1">
+      <c r="B11" s="3">
+        <v>3</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="7"/>
+    </row>
+    <row r="12" spans="1:12" ht="46" customHeight="1">
+      <c r="B12" s="3">
+        <v>4</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="7"/>
+    </row>
+    <row r="13" spans="1:12" ht="46" customHeight="1">
+      <c r="B13" s="3">
+        <v>5</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="7"/>
+    </row>
+    <row r="14" spans="1:12" ht="46" customHeight="1">
+      <c r="B14" s="3">
+        <v>6</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="7"/>
+    </row>
+    <row r="15" spans="1:12" ht="46" customHeight="1">
+      <c r="B15" s="3">
+        <v>7</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="7"/>
+    </row>
+    <row r="16" spans="1:12" ht="46" customHeight="1">
+      <c r="B16" s="3">
+        <v>8</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="7"/>
+    </row>
+    <row r="17" spans="2:12" ht="46" customHeight="1">
+      <c r="B17" s="3">
+        <v>9</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="7"/>
+    </row>
+    <row r="18" spans="2:12" ht="46" customHeight="1">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+    </row>
+    <row r="19" spans="2:12" ht="46" customHeight="1">
+      <c r="B19" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B19:L19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Data/Storage/2018_storage_minus80_information.xlsx
+++ b/Data/Storage/2018_storage_minus80_information.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28705"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew.nguyen\Desktop\Proteome_stability_project\Data\Storage\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F47D1C-A9D3-4CE9-9A43-33BBEC272046}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="0" windowWidth="25360" windowHeight="14640" activeTab="3"/>
+    <workbookView xWindow="1020" yWindow="0" windowWidth="25365" windowHeight="14640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="3" r:id="rId1"/>
-    <sheet name="R1_P1" sheetId="14" r:id="rId2"/>
+    <sheet name="Template" sheetId="14" r:id="rId2"/>
     <sheet name="R3_P6" sheetId="2" r:id="rId3"/>
     <sheet name="R3_P7" sheetId="15" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -108,9 +114,6 @@
     <t>R3_P7</t>
   </si>
   <si>
-    <t>vials with DSPR lines per cohort</t>
-  </si>
-  <si>
     <t>C1A7</t>
   </si>
   <si>
@@ -145,12 +148,15 @@
   </si>
   <si>
     <t>SURF NB#001 pg 92</t>
+  </si>
+  <si>
+    <t>vials with DSPR lines per cohort; used for biochemistry experiments such as unfolding</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -234,13 +240,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -549,51 +555,51 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="23" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="4"/>
+    <col min="1" max="16384" width="10.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -609,33 +615,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.33203125" defaultRowHeight="46" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="15.375" defaultRowHeight="45.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="2"/>
-    <col min="3" max="3" width="19.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.375" style="2"/>
+    <col min="3" max="3" width="19.125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="21" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="15.33203125" style="2"/>
+    <col min="6" max="16384" width="15.375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="46" customHeight="1">
+    <row r="1" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="46" customHeight="1">
+    <row r="2" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="46" customHeight="1">
+    <row r="3" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -643,22 +649,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="46" customHeight="1">
+    <row r="4" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="46" customHeight="1">
+    <row r="5" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="46" customHeight="1">
+    <row r="6" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="46" customHeight="1">
+    <row r="8" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
       <c r="C8" s="3">
         <v>1</v>
@@ -691,7 +697,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="46" customHeight="1">
+    <row r="9" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>1</v>
       </c>
@@ -706,7 +712,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" ht="46" customHeight="1">
+    <row r="10" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>2</v>
       </c>
@@ -721,7 +727,7 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" ht="46" customHeight="1">
+    <row r="11" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>3</v>
       </c>
@@ -736,7 +742,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" ht="46" customHeight="1">
+    <row r="12" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>4</v>
       </c>
@@ -751,7 +757,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" ht="46" customHeight="1">
+    <row r="13" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>5</v>
       </c>
@@ -766,7 +772,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" ht="46" customHeight="1">
+    <row r="14" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <v>6</v>
       </c>
@@ -781,7 +787,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" ht="46" customHeight="1">
+    <row r="15" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <v>7</v>
       </c>
@@ -796,7 +802,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" ht="46" customHeight="1">
+    <row r="16" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <v>8</v>
       </c>
@@ -811,7 +817,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="2:12" ht="46" customHeight="1">
+    <row r="17" spans="2:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <v>9</v>
       </c>
@@ -826,7 +832,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="2:12" ht="46" customHeight="1">
+    <row r="18" spans="2:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <v>10</v>
       </c>
@@ -841,20 +847,20 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="2:12" ht="46" customHeight="1">
-      <c r="B19" s="5" t="s">
+    <row r="19" spans="2:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -871,25 +877,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.33203125" defaultRowHeight="46" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="15.375" defaultRowHeight="45.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="2"/>
-    <col min="3" max="3" width="19.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.375" style="2"/>
+    <col min="3" max="3" width="19.125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="21" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.5" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.5" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="15.33203125" style="2"/>
+    <col min="10" max="16384" width="15.375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="46" customHeight="1">
+    <row r="1" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -897,7 +903,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="46" customHeight="1">
+    <row r="2" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -905,7 +911,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="46" customHeight="1">
+    <row r="3" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -913,12 +919,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="46" customHeight="1">
+    <row r="4" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="46" customHeight="1">
+    <row r="5" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -926,7 +932,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="46" customHeight="1">
+    <row r="6" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -934,7 +940,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="46" customHeight="1">
+    <row r="8" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
       <c r="C8" s="3">
         <v>1</v>
@@ -967,7 +973,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="46" customHeight="1">
+    <row r="9" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>1</v>
       </c>
@@ -996,7 +1002,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" ht="46" customHeight="1">
+    <row r="10" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>2</v>
       </c>
@@ -1011,7 +1017,7 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" ht="46" customHeight="1">
+    <row r="11" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>3</v>
       </c>
@@ -1026,7 +1032,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" ht="46" customHeight="1">
+    <row r="12" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>4</v>
       </c>
@@ -1041,7 +1047,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" ht="46" customHeight="1">
+    <row r="13" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>5</v>
       </c>
@@ -1056,7 +1062,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" ht="46" customHeight="1">
+    <row r="14" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <v>6</v>
       </c>
@@ -1071,7 +1077,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" ht="46" customHeight="1">
+    <row r="15" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <v>7</v>
       </c>
@@ -1086,7 +1092,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" ht="46" customHeight="1">
+    <row r="16" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <v>8</v>
       </c>
@@ -1101,7 +1107,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="2:12" ht="46" customHeight="1">
+    <row r="17" spans="2:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <v>9</v>
       </c>
@@ -1116,7 +1122,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="2:12" ht="46" customHeight="1">
+    <row r="18" spans="2:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <v>10</v>
       </c>
@@ -1131,20 +1137,20 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="2:12" ht="46" customHeight="1">
-      <c r="B19" s="5" t="s">
+    <row r="19" spans="2:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1161,23 +1167,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="J5" activeCellId="1" sqref="B6 J5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.33203125" defaultRowHeight="46" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="15.375" defaultRowHeight="45.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="2"/>
-    <col min="3" max="3" width="19.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.375" style="2"/>
+    <col min="3" max="3" width="19.125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="21" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="15.33203125" style="2"/>
+    <col min="6" max="16384" width="15.375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="46" customHeight="1">
+    <row r="1" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1185,7 +1191,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="46" customHeight="1">
+    <row r="2" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1193,7 +1199,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="46" customHeight="1">
+    <row r="3" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1201,7 +1207,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="46" customHeight="1">
+    <row r="4" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1209,23 +1215,23 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="46" customHeight="1">
+    <row r="5" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="46" customHeight="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="46" customHeight="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
       <c r="C8" s="3">
         <v>1</v>
@@ -1254,50 +1260,50 @@
       <c r="K8" s="3">
         <v>9</v>
       </c>
-      <c r="L8" s="7"/>
-    </row>
-    <row r="9" spans="1:12" ht="46" customHeight="1">
+      <c r="L8" s="5"/>
+    </row>
+    <row r="9" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L9" s="7"/>
-    </row>
-    <row r="10" spans="1:12" ht="46" customHeight="1">
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>2</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -1306,9 +1312,9 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="7"/>
-    </row>
-    <row r="11" spans="1:12" ht="46" customHeight="1">
+      <c r="L10" s="5"/>
+    </row>
+    <row r="11" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>3</v>
       </c>
@@ -1321,9 +1327,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="L11" s="7"/>
-    </row>
-    <row r="12" spans="1:12" ht="46" customHeight="1">
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>4</v>
       </c>
@@ -1336,9 +1342,9 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="7"/>
-    </row>
-    <row r="13" spans="1:12" ht="46" customHeight="1">
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>5</v>
       </c>
@@ -1351,9 +1357,9 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
-      <c r="L13" s="7"/>
-    </row>
-    <row r="14" spans="1:12" ht="46" customHeight="1">
+      <c r="L13" s="5"/>
+    </row>
+    <row r="14" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <v>6</v>
       </c>
@@ -1366,9 +1372,9 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
-      <c r="L14" s="7"/>
-    </row>
-    <row r="15" spans="1:12" ht="46" customHeight="1">
+      <c r="L14" s="5"/>
+    </row>
+    <row r="15" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <v>7</v>
       </c>
@@ -1381,9 +1387,9 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="L15" s="7"/>
-    </row>
-    <row r="16" spans="1:12" ht="46" customHeight="1">
+      <c r="L15" s="5"/>
+    </row>
+    <row r="16" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <v>8</v>
       </c>
@@ -1396,9 +1402,9 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="7"/>
-    </row>
-    <row r="17" spans="2:12" ht="46" customHeight="1">
+      <c r="L16" s="5"/>
+    </row>
+    <row r="17" spans="2:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <v>9</v>
       </c>
@@ -1411,35 +1417,35 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="L17" s="7"/>
-    </row>
-    <row r="18" spans="2:12" ht="46" customHeight="1">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-    </row>
-    <row r="19" spans="2:12" ht="46" customHeight="1">
-      <c r="B19" s="6" t="s">
+      <c r="L17" s="5"/>
+    </row>
+    <row r="18" spans="2:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" spans="2:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Data/Storage/2018_storage_minus80_information.xlsx
+++ b/Data/Storage/2018_storage_minus80_information.xlsx
@@ -1,37 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew.nguyen\Desktop\Proteome_stability_project\Data\Storage\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F47D1C-A9D3-4CE9-9A43-33BBEC272046}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28705"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="0" windowWidth="25365" windowHeight="14640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="0" windowWidth="25360" windowHeight="14640" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="3" r:id="rId1"/>
     <sheet name="Template" sheetId="14" r:id="rId2"/>
     <sheet name="R3_P6" sheetId="2" r:id="rId3"/>
     <sheet name="R3_P7" sheetId="15" r:id="rId4"/>
+    <sheet name="R3_P8" sheetId="18" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="53">
   <si>
     <t>Date</t>
   </si>
@@ -151,12 +146,51 @@
   </si>
   <si>
     <t>vials with DSPR lines per cohort; used for biochemistry experiments such as unfolding</t>
+  </si>
+  <si>
+    <t>2018-07-04</t>
+  </si>
+  <si>
+    <t>DSPR dead cohort flies</t>
+  </si>
+  <si>
+    <t>R3_P8</t>
+  </si>
+  <si>
+    <t>flies that have died after water bath tests</t>
+  </si>
+  <si>
+    <t>SURF nb#001 pg 101</t>
+  </si>
+  <si>
+    <t>2p13A4FR</t>
+  </si>
+  <si>
+    <t>2p5B4HH</t>
+  </si>
+  <si>
+    <t>2p13B4SHS</t>
+  </si>
+  <si>
+    <t>2p8A3SHS</t>
+  </si>
+  <si>
+    <t>2p4A2SHS</t>
+  </si>
+  <si>
+    <t>2p3A4SHS</t>
+  </si>
+  <si>
+    <t>2p8A3SR</t>
+  </si>
+  <si>
+    <t>2p6A1SR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -232,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -249,6 +283,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -555,51 +590,51 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="23" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="10.875" style="4"/>
+    <col min="1" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1">
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -615,33 +650,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.375" defaultRowHeight="45.95" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.33203125" defaultRowHeight="46" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="26" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.375" style="2"/>
-    <col min="3" max="3" width="19.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="2"/>
+    <col min="3" max="3" width="19.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="21" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="15.375" style="2"/>
+    <col min="6" max="16384" width="15.33203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="46" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="46" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="46" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -649,22 +684,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="46" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="46" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="46" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="46" customHeight="1">
       <c r="B8" s="3"/>
       <c r="C8" s="3">
         <v>1</v>
@@ -697,7 +732,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="46" customHeight="1">
       <c r="B9" s="3">
         <v>1</v>
       </c>
@@ -712,7 +747,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="46" customHeight="1">
       <c r="B10" s="3">
         <v>2</v>
       </c>
@@ -727,7 +762,7 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="46" customHeight="1">
       <c r="B11" s="3">
         <v>3</v>
       </c>
@@ -742,7 +777,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="46" customHeight="1">
       <c r="B12" s="3">
         <v>4</v>
       </c>
@@ -757,7 +792,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="46" customHeight="1">
       <c r="B13" s="3">
         <v>5</v>
       </c>
@@ -772,7 +807,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="46" customHeight="1">
       <c r="B14" s="3">
         <v>6</v>
       </c>
@@ -787,7 +822,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="46" customHeight="1">
       <c r="B15" s="3">
         <v>7</v>
       </c>
@@ -802,7 +837,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="46" customHeight="1">
       <c r="B16" s="3">
         <v>8</v>
       </c>
@@ -817,7 +852,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="2:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" ht="46" customHeight="1">
       <c r="B17" s="3">
         <v>9</v>
       </c>
@@ -832,7 +867,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="2:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12" ht="46" customHeight="1">
       <c r="B18" s="3">
         <v>10</v>
       </c>
@@ -847,7 +882,7 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="2:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:12" ht="46" customHeight="1">
       <c r="B19" s="6" t="s">
         <v>6</v>
       </c>
@@ -877,25 +912,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.375" defaultRowHeight="45.95" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.33203125" defaultRowHeight="46" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="26" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.375" style="2"/>
-    <col min="3" max="3" width="19.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="2"/>
+    <col min="3" max="3" width="19.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="21" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.5" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.5" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="15.375" style="2"/>
+    <col min="10" max="16384" width="15.33203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="46" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -903,7 +938,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="46" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -911,7 +946,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="46" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -919,12 +954,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="46" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="46" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -932,7 +967,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="46" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -940,7 +975,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="46" customHeight="1">
       <c r="B8" s="3"/>
       <c r="C8" s="3">
         <v>1</v>
@@ -973,7 +1008,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="46" customHeight="1">
       <c r="B9" s="3">
         <v>1</v>
       </c>
@@ -1002,7 +1037,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="46" customHeight="1">
       <c r="B10" s="3">
         <v>2</v>
       </c>
@@ -1017,7 +1052,7 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="46" customHeight="1">
       <c r="B11" s="3">
         <v>3</v>
       </c>
@@ -1032,7 +1067,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="46" customHeight="1">
       <c r="B12" s="3">
         <v>4</v>
       </c>
@@ -1047,7 +1082,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="46" customHeight="1">
       <c r="B13" s="3">
         <v>5</v>
       </c>
@@ -1062,7 +1097,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="46" customHeight="1">
       <c r="B14" s="3">
         <v>6</v>
       </c>
@@ -1077,7 +1112,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="46" customHeight="1">
       <c r="B15" s="3">
         <v>7</v>
       </c>
@@ -1092,7 +1127,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="46" customHeight="1">
       <c r="B16" s="3">
         <v>8</v>
       </c>
@@ -1107,7 +1142,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="2:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" ht="46" customHeight="1">
       <c r="B17" s="3">
         <v>9</v>
       </c>
@@ -1122,7 +1157,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="2:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12" ht="46" customHeight="1">
       <c r="B18" s="3">
         <v>10</v>
       </c>
@@ -1137,7 +1172,7 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="2:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:12" ht="46" customHeight="1">
       <c r="B19" s="6" t="s">
         <v>6</v>
       </c>
@@ -1167,23 +1202,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.375" defaultRowHeight="45.95" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.33203125" defaultRowHeight="46" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="26" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.375" style="2"/>
-    <col min="3" max="3" width="19.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="2"/>
+    <col min="3" max="3" width="19.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="21" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="15.375" style="2"/>
+    <col min="6" max="16384" width="15.33203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="46" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1191,7 +1226,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="46" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1199,7 +1234,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="46" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1207,7 +1242,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="46" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1215,7 +1250,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="46" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1223,7 +1258,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="46" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1231,7 +1266,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="46" customHeight="1">
       <c r="B8" s="3"/>
       <c r="C8" s="3">
         <v>1</v>
@@ -1262,7 +1297,7 @@
       </c>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="46" customHeight="1">
       <c r="B9" s="3">
         <v>1</v>
       </c>
@@ -1295,7 +1330,7 @@
       </c>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="46" customHeight="1">
       <c r="B10" s="3">
         <v>2</v>
       </c>
@@ -1314,7 +1349,7 @@
       <c r="K10" s="3"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="46" customHeight="1">
       <c r="B11" s="3">
         <v>3</v>
       </c>
@@ -1329,7 +1364,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="46" customHeight="1">
       <c r="B12" s="3">
         <v>4</v>
       </c>
@@ -1344,7 +1379,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="46" customHeight="1">
       <c r="B13" s="3">
         <v>5</v>
       </c>
@@ -1359,7 +1394,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="46" customHeight="1">
       <c r="B14" s="3">
         <v>6</v>
       </c>
@@ -1374,7 +1409,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="46" customHeight="1">
       <c r="B15" s="3">
         <v>7</v>
       </c>
@@ -1389,7 +1424,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="5"/>
     </row>
-    <row r="16" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="46" customHeight="1">
       <c r="B16" s="3">
         <v>8</v>
       </c>
@@ -1404,7 +1439,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="2:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" ht="46" customHeight="1">
       <c r="B17" s="3">
         <v>9</v>
       </c>
@@ -1419,7 +1454,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="2:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12" ht="46" customHeight="1">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -1432,7 +1467,307 @@
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="2:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:12" ht="46" customHeight="1">
+      <c r="B19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B19:L19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.33203125" defaultRowHeight="46" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="26" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="2"/>
+    <col min="3" max="3" width="19.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="21" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="15.33203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="46" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="46" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="46" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="46" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="46" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="46" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="46" customHeight="1">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3">
+        <v>4</v>
+      </c>
+      <c r="G8" s="3">
+        <v>5</v>
+      </c>
+      <c r="H8" s="3">
+        <v>6</v>
+      </c>
+      <c r="I8" s="3">
+        <v>7</v>
+      </c>
+      <c r="J8" s="3">
+        <v>8</v>
+      </c>
+      <c r="K8" s="3">
+        <v>9</v>
+      </c>
+      <c r="L8" s="5"/>
+      <c r="M8" s="8"/>
+    </row>
+    <row r="9" spans="1:13" ht="46" customHeight="1">
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" spans="1:13" ht="46" customHeight="1">
+      <c r="B10" s="3">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="8"/>
+    </row>
+    <row r="11" spans="1:13" ht="46" customHeight="1">
+      <c r="B11" s="3">
+        <v>3</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="8"/>
+    </row>
+    <row r="12" spans="1:13" ht="46" customHeight="1">
+      <c r="B12" s="3">
+        <v>4</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="8"/>
+    </row>
+    <row r="13" spans="1:13" ht="46" customHeight="1">
+      <c r="B13" s="3">
+        <v>5</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="8"/>
+    </row>
+    <row r="14" spans="1:13" ht="46" customHeight="1">
+      <c r="B14" s="3">
+        <v>6</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="8"/>
+    </row>
+    <row r="15" spans="1:13" ht="46" customHeight="1">
+      <c r="B15" s="3">
+        <v>7</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="8"/>
+    </row>
+    <row r="16" spans="1:13" ht="46" customHeight="1">
+      <c r="B16" s="3">
+        <v>8</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="8"/>
+    </row>
+    <row r="17" spans="2:13" ht="46" customHeight="1">
+      <c r="B17" s="3">
+        <v>9</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="8"/>
+    </row>
+    <row r="18" spans="2:13" ht="46" customHeight="1">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="8"/>
+    </row>
+    <row r="19" spans="2:13" ht="46" customHeight="1">
       <c r="B19" s="7" t="s">
         <v>6</v>
       </c>

--- a/Data/Storage/2018_storage_minus80_information.xlsx
+++ b/Data/Storage/2018_storage_minus80_information.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28705"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hannahchu\Documents\GitHub\Proteome_stability_project\Data\Storage\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D018D30-896A-470F-9FC0-D31E945D32E9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="0" windowWidth="25360" windowHeight="14640" activeTab="4"/>
+    <workbookView xWindow="1020" yWindow="0" windowWidth="25365" windowHeight="14640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="3" r:id="rId1"/>
@@ -15,18 +21,18 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="68">
   <si>
     <t>Date</t>
   </si>
@@ -185,12 +191,57 @@
   </si>
   <si>
     <t>2p6A1SR</t>
+  </si>
+  <si>
+    <t>C2AB8</t>
+  </si>
+  <si>
+    <t>C2B3</t>
+  </si>
+  <si>
+    <t>C2B2</t>
+  </si>
+  <si>
+    <t>C2A3</t>
+  </si>
+  <si>
+    <t>C2A6</t>
+  </si>
+  <si>
+    <t>C2A2</t>
+  </si>
+  <si>
+    <t>C2B6</t>
+  </si>
+  <si>
+    <t>C2A7</t>
+  </si>
+  <si>
+    <t>C2A5</t>
+  </si>
+  <si>
+    <t>C2A4</t>
+  </si>
+  <si>
+    <t>C3A5</t>
+  </si>
+  <si>
+    <t>C3B3</t>
+  </si>
+  <si>
+    <t>C3A3</t>
+  </si>
+  <si>
+    <t>C3A1</t>
+  </si>
+  <si>
+    <t>C3A4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -277,13 +328,13 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -590,51 +641,51 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="23" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="4"/>
+    <col min="1" max="16384" width="10.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -650,33 +701,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.33203125" defaultRowHeight="46" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="15.375" defaultRowHeight="45.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="2"/>
-    <col min="3" max="3" width="19.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.375" style="2"/>
+    <col min="3" max="3" width="19.125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="21" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="15.33203125" style="2"/>
+    <col min="6" max="16384" width="15.375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="46" customHeight="1">
+    <row r="1" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="46" customHeight="1">
+    <row r="2" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="46" customHeight="1">
+    <row r="3" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -684,22 +735,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="46" customHeight="1">
+    <row r="4" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="46" customHeight="1">
+    <row r="5" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="46" customHeight="1">
+    <row r="6" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="46" customHeight="1">
+    <row r="8" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
       <c r="C8" s="3">
         <v>1</v>
@@ -732,7 +783,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="46" customHeight="1">
+    <row r="9" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>1</v>
       </c>
@@ -747,7 +798,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" ht="46" customHeight="1">
+    <row r="10" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>2</v>
       </c>
@@ -762,7 +813,7 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" ht="46" customHeight="1">
+    <row r="11" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>3</v>
       </c>
@@ -777,7 +828,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" ht="46" customHeight="1">
+    <row r="12" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>4</v>
       </c>
@@ -792,7 +843,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" ht="46" customHeight="1">
+    <row r="13" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>5</v>
       </c>
@@ -807,7 +858,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" ht="46" customHeight="1">
+    <row r="14" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <v>6</v>
       </c>
@@ -822,7 +873,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" ht="46" customHeight="1">
+    <row r="15" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <v>7</v>
       </c>
@@ -837,7 +888,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" ht="46" customHeight="1">
+    <row r="16" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <v>8</v>
       </c>
@@ -852,7 +903,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="2:12" ht="46" customHeight="1">
+    <row r="17" spans="2:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <v>9</v>
       </c>
@@ -867,7 +918,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="2:12" ht="46" customHeight="1">
+    <row r="18" spans="2:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <v>10</v>
       </c>
@@ -882,20 +933,20 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="2:12" ht="46" customHeight="1">
-      <c r="B19" s="6" t="s">
+    <row r="19" spans="2:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -912,25 +963,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.33203125" defaultRowHeight="46" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="15.375" defaultRowHeight="45.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="2"/>
-    <col min="3" max="3" width="19.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.375" style="2"/>
+    <col min="3" max="3" width="19.125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="21" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.5" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.5" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="15.33203125" style="2"/>
+    <col min="10" max="16384" width="15.375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="46" customHeight="1">
+    <row r="1" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -938,7 +989,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="46" customHeight="1">
+    <row r="2" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -946,7 +997,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="46" customHeight="1">
+    <row r="3" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -954,12 +1005,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="46" customHeight="1">
+    <row r="4" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="46" customHeight="1">
+    <row r="5" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -967,7 +1018,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="46" customHeight="1">
+    <row r="6" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -975,7 +1026,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="46" customHeight="1">
+    <row r="8" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
       <c r="C8" s="3">
         <v>1</v>
@@ -1008,7 +1059,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="46" customHeight="1">
+    <row r="9" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>1</v>
       </c>
@@ -1037,7 +1088,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" ht="46" customHeight="1">
+    <row r="10" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>2</v>
       </c>
@@ -1052,7 +1103,7 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" ht="46" customHeight="1">
+    <row r="11" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>3</v>
       </c>
@@ -1067,7 +1118,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" ht="46" customHeight="1">
+    <row r="12" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>4</v>
       </c>
@@ -1082,7 +1133,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" ht="46" customHeight="1">
+    <row r="13" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>5</v>
       </c>
@@ -1097,7 +1148,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" ht="46" customHeight="1">
+    <row r="14" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <v>6</v>
       </c>
@@ -1112,7 +1163,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" ht="46" customHeight="1">
+    <row r="15" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <v>7</v>
       </c>
@@ -1127,7 +1178,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" ht="46" customHeight="1">
+    <row r="16" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <v>8</v>
       </c>
@@ -1142,7 +1193,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="2:12" ht="46" customHeight="1">
+    <row r="17" spans="2:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <v>9</v>
       </c>
@@ -1157,7 +1208,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="2:12" ht="46" customHeight="1">
+    <row r="18" spans="2:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <v>10</v>
       </c>
@@ -1172,20 +1223,20 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="2:12" ht="46" customHeight="1">
-      <c r="B19" s="6" t="s">
+    <row r="19" spans="2:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1202,23 +1253,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.33203125" defaultRowHeight="46" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="15.375" defaultRowHeight="45.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="2"/>
-    <col min="3" max="3" width="19.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.375" style="2"/>
+    <col min="3" max="3" width="19.125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="21" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="15.33203125" style="2"/>
+    <col min="6" max="16384" width="15.375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="46" customHeight="1">
+    <row r="1" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1226,7 +1277,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="46" customHeight="1">
+    <row r="2" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1234,7 +1285,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="46" customHeight="1">
+    <row r="3" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1242,7 +1293,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="46" customHeight="1">
+    <row r="4" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1250,7 +1301,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="46" customHeight="1">
+    <row r="5" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1258,7 +1309,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="46" customHeight="1">
+    <row r="6" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1266,7 +1317,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="46" customHeight="1">
+    <row r="8" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
       <c r="C8" s="3">
         <v>1</v>
@@ -1297,7 +1348,7 @@
       </c>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="1:12" ht="46" customHeight="1">
+    <row r="9" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>1</v>
       </c>
@@ -1330,7 +1381,7 @@
       </c>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="1:12" ht="46" customHeight="1">
+    <row r="10" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>2</v>
       </c>
@@ -1340,31 +1391,61 @@
       <c r="D10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:12" ht="46" customHeight="1">
+    <row r="11" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>3</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="K11" s="3"/>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:12" ht="46" customHeight="1">
+    <row r="12" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>4</v>
       </c>
@@ -1379,7 +1460,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:12" ht="46" customHeight="1">
+    <row r="13" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>5</v>
       </c>
@@ -1394,7 +1475,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="1:12" ht="46" customHeight="1">
+    <row r="14" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <v>6</v>
       </c>
@@ -1409,7 +1490,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:12" ht="46" customHeight="1">
+    <row r="15" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <v>7</v>
       </c>
@@ -1424,7 +1505,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="5"/>
     </row>
-    <row r="16" spans="1:12" ht="46" customHeight="1">
+    <row r="16" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <v>8</v>
       </c>
@@ -1439,7 +1520,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="2:12" ht="46" customHeight="1">
+    <row r="17" spans="2:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <v>9</v>
       </c>
@@ -1454,7 +1535,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="2:12" ht="46" customHeight="1">
+    <row r="18" spans="2:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -1467,20 +1548,20 @@
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="2:12" ht="46" customHeight="1">
-      <c r="B19" s="7" t="s">
+    <row r="19" spans="2:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1497,23 +1578,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
       <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.33203125" defaultRowHeight="46" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="15.375" defaultRowHeight="45.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="2"/>
-    <col min="3" max="3" width="19.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.375" style="2"/>
+    <col min="3" max="3" width="19.125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="21" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="15.33203125" style="2"/>
+    <col min="6" max="16384" width="15.375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="46" customHeight="1">
+    <row r="1" spans="1:13" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1521,7 +1602,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="46" customHeight="1">
+    <row r="2" spans="1:13" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1529,7 +1610,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="46" customHeight="1">
+    <row r="3" spans="1:13" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1537,7 +1618,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="46" customHeight="1">
+    <row r="4" spans="1:13" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1545,7 +1626,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="46" customHeight="1">
+    <row r="5" spans="1:13" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1553,7 +1634,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="46" customHeight="1">
+    <row r="6" spans="1:13" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1561,7 +1642,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="46" customHeight="1">
+    <row r="8" spans="1:13" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
       <c r="C8" s="3">
         <v>1</v>
@@ -1591,9 +1672,9 @@
         <v>9</v>
       </c>
       <c r="L8" s="5"/>
-      <c r="M8" s="8"/>
-    </row>
-    <row r="9" spans="1:13" ht="46" customHeight="1">
+      <c r="M8" s="6"/>
+    </row>
+    <row r="9" spans="1:13" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>1</v>
       </c>
@@ -1623,9 +1704,9 @@
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="5"/>
-      <c r="M9" s="8"/>
-    </row>
-    <row r="10" spans="1:13" ht="46" customHeight="1">
+      <c r="M9" s="6"/>
+    </row>
+    <row r="10" spans="1:13" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>2</v>
       </c>
@@ -1639,9 +1720,9 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="5"/>
-      <c r="M10" s="8"/>
-    </row>
-    <row r="11" spans="1:13" ht="46" customHeight="1">
+      <c r="M10" s="6"/>
+    </row>
+    <row r="11" spans="1:13" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>3</v>
       </c>
@@ -1655,9 +1736,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="8"/>
-    </row>
-    <row r="12" spans="1:13" ht="46" customHeight="1">
+      <c r="M11" s="6"/>
+    </row>
+    <row r="12" spans="1:13" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>4</v>
       </c>
@@ -1671,9 +1752,9 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="8"/>
-    </row>
-    <row r="13" spans="1:13" ht="46" customHeight="1">
+      <c r="M12" s="6"/>
+    </row>
+    <row r="13" spans="1:13" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>5</v>
       </c>
@@ -1687,9 +1768,9 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="5"/>
-      <c r="M13" s="8"/>
-    </row>
-    <row r="14" spans="1:13" ht="46" customHeight="1">
+      <c r="M13" s="6"/>
+    </row>
+    <row r="14" spans="1:13" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <v>6</v>
       </c>
@@ -1703,9 +1784,9 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="5"/>
-      <c r="M14" s="8"/>
-    </row>
-    <row r="15" spans="1:13" ht="46" customHeight="1">
+      <c r="M14" s="6"/>
+    </row>
+    <row r="15" spans="1:13" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <v>7</v>
       </c>
@@ -1719,9 +1800,9 @@
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="5"/>
-      <c r="M15" s="8"/>
-    </row>
-    <row r="16" spans="1:13" ht="46" customHeight="1">
+      <c r="M15" s="6"/>
+    </row>
+    <row r="16" spans="1:13" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <v>8</v>
       </c>
@@ -1735,9 +1816,9 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="5"/>
-      <c r="M16" s="8"/>
-    </row>
-    <row r="17" spans="2:13" ht="46" customHeight="1">
+      <c r="M16" s="6"/>
+    </row>
+    <row r="17" spans="2:13" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <v>9</v>
       </c>
@@ -1751,9 +1832,9 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="5"/>
-      <c r="M17" s="8"/>
-    </row>
-    <row r="18" spans="2:13" ht="46" customHeight="1">
+      <c r="M17" s="6"/>
+    </row>
+    <row r="18" spans="2:13" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -1765,22 +1846,22 @@
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
-      <c r="M18" s="8"/>
-    </row>
-    <row r="19" spans="2:13" ht="46" customHeight="1">
-      <c r="B19" s="7" t="s">
+      <c r="M18" s="6"/>
+    </row>
+    <row r="19" spans="2:13" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Data/Storage/2018_storage_minus80_information.xlsx
+++ b/Data/Storage/2018_storage_minus80_information.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hannahchu\Documents\GitHub\Proteome_stability_project\Data\Storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D018D30-896A-470F-9FC0-D31E945D32E9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{939FE8C3-C4FF-4E9F-B5CD-049BB8B1446A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="0" windowWidth="25365" windowHeight="14640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="0" windowWidth="25365" windowHeight="14640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="81">
   <si>
     <t>Date</t>
   </si>
@@ -236,6 +236,45 @@
   </si>
   <si>
     <t>C3A4</t>
+  </si>
+  <si>
+    <t>2p5B4FR</t>
+  </si>
+  <si>
+    <t>3p10B6FR</t>
+  </si>
+  <si>
+    <t>3p9A5HH</t>
+  </si>
+  <si>
+    <t>3p5B4HH</t>
+  </si>
+  <si>
+    <t>3p3AB8HH</t>
+  </si>
+  <si>
+    <t>3p9A3SR</t>
+  </si>
+  <si>
+    <t>3p7AB8SR</t>
+  </si>
+  <si>
+    <t>3p6A1SR</t>
+  </si>
+  <si>
+    <t>3p3A6SR</t>
+  </si>
+  <si>
+    <t>3p11A4SHS</t>
+  </si>
+  <si>
+    <t>3p11A7FR</t>
+  </si>
+  <si>
+    <t>3p3A4FR</t>
+  </si>
+  <si>
+    <t>1p2A1FR</t>
   </si>
 </sst>
 </file>
@@ -395,7 +434,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -447,7 +486,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1256,8 +1295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.375" defaultRowHeight="45.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1581,8 +1620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.375" defaultRowHeight="45.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1702,7 +1741,9 @@
       <c r="J9" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="K9" s="3"/>
+      <c r="K9" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="L9" s="5"/>
       <c r="M9" s="6"/>
     </row>
@@ -1710,15 +1751,33 @@
       <c r="B10" s="3">
         <v>2</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="L10" s="5"/>
       <c r="M10" s="6"/>
     </row>
@@ -1726,9 +1785,15 @@
       <c r="B11" s="3">
         <v>3</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>

--- a/Data/Storage/2018_storage_minus80_information.xlsx
+++ b/Data/Storage/2018_storage_minus80_information.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hannahchu\Documents\GitHub\Proteome_stability_project\Data\Storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{939FE8C3-C4FF-4E9F-B5CD-049BB8B1446A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8643441-2201-42E5-9B08-28E0546DBE1C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="0" windowWidth="25365" windowHeight="14640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="0" windowWidth="25365" windowHeight="14640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="85">
   <si>
     <t>Date</t>
   </si>
@@ -275,6 +275,18 @@
   </si>
   <si>
     <t>1p2A1FR</t>
+  </si>
+  <si>
+    <t>C4A2</t>
+  </si>
+  <si>
+    <t>C4A5</t>
+  </si>
+  <si>
+    <t>C4A7</t>
+  </si>
+  <si>
+    <t>C4B6</t>
   </si>
 </sst>
 </file>
@@ -1295,8 +1307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.375" defaultRowHeight="45.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1481,16 +1493,24 @@
       <c r="J11" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="K11" s="3"/>
+      <c r="K11" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="L11" s="5"/>
     </row>
     <row r="12" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>4</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -1620,8 +1640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.375" defaultRowHeight="45.95" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Data/Storage/2018_storage_minus80_information.xlsx
+++ b/Data/Storage/2018_storage_minus80_information.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hannahchu\Documents\GitHub\Proteome_stability_project\Data\Storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8643441-2201-42E5-9B08-28E0546DBE1C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0815E4D1-49CD-4F77-961A-07E6217B8126}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="0" windowWidth="25365" windowHeight="14640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="0" windowWidth="25365" windowHeight="14640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="100">
   <si>
     <t>Date</t>
   </si>
@@ -287,6 +287,51 @@
   </si>
   <si>
     <t>C4B6</t>
+  </si>
+  <si>
+    <t>C5A3</t>
+  </si>
+  <si>
+    <t>C5B2</t>
+  </si>
+  <si>
+    <t>C5A2</t>
+  </si>
+  <si>
+    <t>C5A7</t>
+  </si>
+  <si>
+    <t>C5A6</t>
+  </si>
+  <si>
+    <t>4p10A4HH</t>
+  </si>
+  <si>
+    <t>4p13A1SHS</t>
+  </si>
+  <si>
+    <t>4p3A4SHS</t>
+  </si>
+  <si>
+    <t>4p5AB8HH</t>
+  </si>
+  <si>
+    <t>4p3B2HH</t>
+  </si>
+  <si>
+    <t>4p1A6SR</t>
+  </si>
+  <si>
+    <t>4p4B4SR</t>
+  </si>
+  <si>
+    <t>4p12A1SR</t>
+  </si>
+  <si>
+    <t>1p11A4FR</t>
+  </si>
+  <si>
+    <t>4p4A6HH</t>
   </si>
 </sst>
 </file>
@@ -1307,7 +1352,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -1511,11 +1556,21 @@
       <c r="E12" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="K12" s="3"/>
       <c r="L12" s="5"/>
     </row>
@@ -1640,8 +1695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.375" defaultRowHeight="45.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1815,10 +1870,18 @@
         <v>80</v>
       </c>
       <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="K11" s="3"/>
       <c r="L11" s="5"/>
       <c r="M11" s="6"/>
@@ -1827,12 +1890,24 @@
       <c r="B12" s="3">
         <v>4</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>

--- a/Data/Storage/2018_storage_minus80_information.xlsx
+++ b/Data/Storage/2018_storage_minus80_information.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hannahchu\Documents\GitHub\Proteome_stability_project\Data\Storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0815E4D1-49CD-4F77-961A-07E6217B8126}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F229694E-63E9-45CB-A17F-BC244FF782A1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="0" windowWidth="25365" windowHeight="14640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="107">
   <si>
     <t>Date</t>
   </si>
@@ -332,6 +332,27 @@
   </si>
   <si>
     <t>4p4A6HH</t>
+  </si>
+  <si>
+    <t>c3AB8F</t>
+  </si>
+  <si>
+    <t>c2AB8F</t>
+  </si>
+  <si>
+    <t>2p9A6SHS</t>
+  </si>
+  <si>
+    <t>2p13AB8SR</t>
+  </si>
+  <si>
+    <t>2p6AB8SHS</t>
+  </si>
+  <si>
+    <t>5p12A1HH</t>
+  </si>
+  <si>
+    <t>4p8A4SR</t>
   </si>
 </sst>
 </file>
@@ -1696,7 +1717,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.375" defaultRowHeight="45.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1869,7 +1890,9 @@
       <c r="E11" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>100</v>
+      </c>
       <c r="G11" s="3" t="s">
         <v>90</v>
       </c>
@@ -1882,7 +1905,9 @@
       <c r="J11" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="K11" s="3"/>
+      <c r="K11" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="L11" s="5"/>
       <c r="M11" s="6"/>
     </row>
@@ -1908,9 +1933,15 @@
       <c r="H12" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
+      <c r="I12" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>104</v>
+      </c>
       <c r="L12" s="5"/>
       <c r="M12" s="6"/>
     </row>
@@ -1918,8 +1949,12 @@
       <c r="B13" s="3">
         <v>5</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>

--- a/Data/Storage/2018_storage_minus80_information.xlsx
+++ b/Data/Storage/2018_storage_minus80_information.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hannahchu\Documents\GitHub\Proteome_stability_project\Data\Storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F229694E-63E9-45CB-A17F-BC244FF782A1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA597811-53BB-4CCE-9327-32AF5E7B2AA0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="0" windowWidth="25365" windowHeight="14640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="0" windowWidth="25365" windowHeight="14640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="119">
   <si>
     <t>Date</t>
   </si>
@@ -353,6 +353,42 @@
   </si>
   <si>
     <t>4p8A4SR</t>
+  </si>
+  <si>
+    <t>C6A5</t>
+  </si>
+  <si>
+    <t>C6A2</t>
+  </si>
+  <si>
+    <t>C6B6</t>
+  </si>
+  <si>
+    <t>C6A1</t>
+  </si>
+  <si>
+    <t>C6A7</t>
+  </si>
+  <si>
+    <t>C6A4</t>
+  </si>
+  <si>
+    <t>C6A6</t>
+  </si>
+  <si>
+    <t>C6B4</t>
+  </si>
+  <si>
+    <t>C6B7</t>
+  </si>
+  <si>
+    <t>C6B2</t>
+  </si>
+  <si>
+    <t>C6B3</t>
+  </si>
+  <si>
+    <t>C6A3</t>
   </si>
 </sst>
 </file>
@@ -1373,8 +1409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.375" defaultRowHeight="45.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1592,30 +1628,54 @@
       <c r="J12" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="K12" s="3"/>
+      <c r="K12" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="L12" s="5"/>
     </row>
     <row r="13" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>5</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="L13" s="5"/>
     </row>
     <row r="14" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <v>6</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>118</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1716,7 +1776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>

--- a/Data/Storage/2018_storage_minus80_information.xlsx
+++ b/Data/Storage/2018_storage_minus80_information.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hannahchu\Documents\GitHub\Proteome_stability_project\Data\Storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA597811-53BB-4CCE-9327-32AF5E7B2AA0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4842F56-64B7-4126-B1F8-093EBCA28384}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="0" windowWidth="25365" windowHeight="14640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="0" windowWidth="25365" windowHeight="14640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="134">
   <si>
     <t>Date</t>
   </si>
@@ -389,6 +389,51 @@
   </si>
   <si>
     <t>C6A3</t>
+  </si>
+  <si>
+    <t>C7A4</t>
+  </si>
+  <si>
+    <t>C7A2</t>
+  </si>
+  <si>
+    <t>C7A5</t>
+  </si>
+  <si>
+    <t>C7B4</t>
+  </si>
+  <si>
+    <t>1p12B6SR</t>
+  </si>
+  <si>
+    <t>2p1A1FR</t>
+  </si>
+  <si>
+    <t>1p8B6SHS</t>
+  </si>
+  <si>
+    <t>2p6A4HH</t>
+  </si>
+  <si>
+    <t>3p12A7HH</t>
+  </si>
+  <si>
+    <t>2p9AB8HH</t>
+  </si>
+  <si>
+    <t>3p1AB8FR</t>
+  </si>
+  <si>
+    <t>6p7A3SR</t>
+  </si>
+  <si>
+    <t>1p5B3FR</t>
+  </si>
+  <si>
+    <t>6p12B4SHS</t>
+  </si>
+  <si>
+    <t>2p12A5SR</t>
   </si>
 </sst>
 </file>
@@ -1409,8 +1454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.375" defaultRowHeight="45.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1676,10 +1721,18 @@
       <c r="D14" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -1776,8 +1829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.375" defaultRowHeight="45.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2015,13 +2068,27 @@
       <c r="D13" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>129</v>
+      </c>
       <c r="L13" s="5"/>
       <c r="M13" s="6"/>
     </row>
@@ -2029,10 +2096,18 @@
       <c r="B14" s="3">
         <v>6</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>133</v>
+      </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>

--- a/Data/Storage/2018_storage_minus80_information.xlsx
+++ b/Data/Storage/2018_storage_minus80_information.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hannahchu\Documents\GitHub\Proteome_stability_project\Data\Storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4842F56-64B7-4126-B1F8-093EBCA28384}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8E52FE-EDED-4B96-9D57-D5F91A9FE376}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="0" windowWidth="25365" windowHeight="14640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="0" windowWidth="25365" windowHeight="14640" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="3" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="R3_P6" sheetId="2" r:id="rId3"/>
     <sheet name="R3_P7" sheetId="15" r:id="rId4"/>
     <sheet name="R3_P8" sheetId="18" r:id="rId5"/>
+    <sheet name="R3_P10" sheetId="20" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="155">
   <si>
     <t>Date</t>
   </si>
@@ -434,6 +435,69 @@
   </si>
   <si>
     <t>2p12A5SR</t>
+  </si>
+  <si>
+    <t>2018-07-16</t>
+  </si>
+  <si>
+    <t>DSPR dead cohort flies box 2</t>
+  </si>
+  <si>
+    <t>R3_P10</t>
+  </si>
+  <si>
+    <t>SURF nb#001 pg 116</t>
+  </si>
+  <si>
+    <t>3p7A5FR</t>
+  </si>
+  <si>
+    <t>1p13B7FR</t>
+  </si>
+  <si>
+    <t>8p9A2SR</t>
+  </si>
+  <si>
+    <t>2p2B3SHS</t>
+  </si>
+  <si>
+    <t>2p4B2FR</t>
+  </si>
+  <si>
+    <t>c2B2M</t>
+  </si>
+  <si>
+    <t>3p2A2SR</t>
+  </si>
+  <si>
+    <t>2p10A5SHS</t>
+  </si>
+  <si>
+    <t>2p8B7FR</t>
+  </si>
+  <si>
+    <t>5p8B7SR</t>
+  </si>
+  <si>
+    <t>9p1A4FR</t>
+  </si>
+  <si>
+    <t>9p10AB8HH</t>
+  </si>
+  <si>
+    <t>9p3A4HH</t>
+  </si>
+  <si>
+    <t>9p10A4SR</t>
+  </si>
+  <si>
+    <t>9p13B4HH</t>
+  </si>
+  <si>
+    <t>9p12B3HH</t>
+  </si>
+  <si>
+    <t>9p10A6FR</t>
   </si>
 </sst>
 </file>
@@ -1455,7 +1519,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.375" defaultRowHeight="45.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1829,8 +1893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.375" defaultRowHeight="45.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2205,4 +2269,310 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4E102B1-2630-4524-B8DA-0AB55550DDDC}">
+  <dimension ref="A1:L19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.375" defaultRowHeight="45.95" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.375" style="2"/>
+    <col min="3" max="3" width="19.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="21" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="15.375" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3">
+        <v>4</v>
+      </c>
+      <c r="G8" s="3">
+        <v>5</v>
+      </c>
+      <c r="H8" s="3">
+        <v>6</v>
+      </c>
+      <c r="I8" s="3">
+        <v>7</v>
+      </c>
+      <c r="J8" s="3">
+        <v>8</v>
+      </c>
+      <c r="K8" s="3">
+        <v>9</v>
+      </c>
+      <c r="L8" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="3">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="3">
+        <v>3</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="3">
+        <v>4</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="3">
+        <v>5</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="3">
+        <v>6</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="3">
+        <v>7</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="3">
+        <v>8</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="2:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="3">
+        <v>9</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="2:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="3">
+        <v>10</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="2:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B19:L19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/Data/Storage/2018_storage_minus80_information.xlsx
+++ b/Data/Storage/2018_storage_minus80_information.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hannahchu\Documents\GitHub\Proteome_stability_project\Data\Storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8E52FE-EDED-4B96-9D57-D5F91A9FE376}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF95B1C5-AC3D-4EAA-80D8-BB64230C0209}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="0" windowWidth="25365" windowHeight="14640" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="0" windowWidth="25365" windowHeight="14640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="189">
   <si>
     <t>Date</t>
   </si>
@@ -498,6 +498,108 @@
   </si>
   <si>
     <t>9p10A6FR</t>
+  </si>
+  <si>
+    <t>c3B3F</t>
+  </si>
+  <si>
+    <t>4p3B4FR</t>
+  </si>
+  <si>
+    <t>7p3A2HH</t>
+  </si>
+  <si>
+    <t>c5AB8M</t>
+  </si>
+  <si>
+    <t>7p2A4SHS</t>
+  </si>
+  <si>
+    <t>3p1AB8SHS</t>
+  </si>
+  <si>
+    <t>c3A6F</t>
+  </si>
+  <si>
+    <t>7p2AB8HH</t>
+  </si>
+  <si>
+    <t>4p6AB8SR</t>
+  </si>
+  <si>
+    <t>7p10A2SR</t>
+  </si>
+  <si>
+    <t>7p2B8SR</t>
+  </si>
+  <si>
+    <t>2p11AB8FR</t>
+  </si>
+  <si>
+    <t>c2B3F</t>
+  </si>
+  <si>
+    <t>c4A7M</t>
+  </si>
+  <si>
+    <t>2p3B6SR</t>
+  </si>
+  <si>
+    <t>c2B3M</t>
+  </si>
+  <si>
+    <t>7p8A1SHS</t>
+  </si>
+  <si>
+    <t>7p7A1SR</t>
+  </si>
+  <si>
+    <t>c4A5F</t>
+  </si>
+  <si>
+    <t>1p6A7FR</t>
+  </si>
+  <si>
+    <t>2p5A7SHS</t>
+  </si>
+  <si>
+    <t>1p9A7SHS</t>
+  </si>
+  <si>
+    <t>2p7A7SR</t>
+  </si>
+  <si>
+    <t>1p12A2FR</t>
+  </si>
+  <si>
+    <t>5p13AB8HH</t>
+  </si>
+  <si>
+    <t>2p7A2HH</t>
+  </si>
+  <si>
+    <t>2p3A2FR</t>
+  </si>
+  <si>
+    <t>8p2A3SR</t>
+  </si>
+  <si>
+    <t>8p3B4HH</t>
+  </si>
+  <si>
+    <t>8p13A4SHS</t>
+  </si>
+  <si>
+    <t>8p6AB8HH</t>
+  </si>
+  <si>
+    <t>c2A6M</t>
+  </si>
+  <si>
+    <t>8p13AB8SR</t>
+  </si>
+  <si>
+    <t>8p10B6HH</t>
   </si>
 </sst>
 </file>
@@ -1519,7 +1621,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.375" defaultRowHeight="45.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1893,8 +1995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.375" defaultRowHeight="45.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2172,11 +2274,21 @@
       <c r="F14" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
+      <c r="G14" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="L14" s="5"/>
       <c r="M14" s="6"/>
     </row>
@@ -2184,15 +2296,33 @@
       <c r="B15" s="3">
         <v>7</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>168</v>
+      </c>
       <c r="L15" s="5"/>
       <c r="M15" s="6"/>
     </row>
@@ -2200,15 +2330,33 @@
       <c r="B16" s="3">
         <v>8</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="L16" s="5"/>
       <c r="M16" s="6"/>
     </row>
@@ -2216,15 +2364,31 @@
       <c r="B17" s="3">
         <v>9</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>180</v>
+      </c>
       <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
+      <c r="G17" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>185</v>
+      </c>
       <c r="L17" s="5"/>
       <c r="M17" s="6"/>
     </row>
@@ -2275,8 +2439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4E102B1-2630-4524-B8DA-0AB55550DDDC}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.375" defaultRowHeight="45.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2430,15 +2594,21 @@
       <c r="J10" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="K10" s="3"/>
+      <c r="K10" s="3" t="s">
+        <v>186</v>
+      </c>
       <c r="L10" s="3"/>
     </row>
     <row r="11" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>3</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>188</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>

--- a/Data/Storage/2018_storage_minus80_information.xlsx
+++ b/Data/Storage/2018_storage_minus80_information.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hannahchu\Documents\GitHub\Proteome_stability_project\Data\Storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF95B1C5-AC3D-4EAA-80D8-BB64230C0209}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6970CFD4-83A8-4B28-A3F2-72B7DF84270A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="0" windowWidth="25365" windowHeight="14640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="0" windowWidth="25365" windowHeight="14640" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="3" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="R3_P7" sheetId="15" r:id="rId4"/>
     <sheet name="R3_P8" sheetId="18" r:id="rId5"/>
     <sheet name="R3_P10" sheetId="20" r:id="rId6"/>
+    <sheet name="R3_P11" sheetId="21" r:id="rId7"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="198">
   <si>
     <t>Date</t>
   </si>
@@ -600,6 +601,33 @@
   </si>
   <si>
     <t>8p10B6HH</t>
+  </si>
+  <si>
+    <t>5K hom</t>
+  </si>
+  <si>
+    <t>10k hom</t>
+  </si>
+  <si>
+    <t>5K ultracent</t>
+  </si>
+  <si>
+    <t>10K ultracent</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>2018-07-19</t>
+  </si>
+  <si>
+    <t>Proteome Stability Fly Samples</t>
+  </si>
+  <si>
+    <t>R3P11</t>
+  </si>
+  <si>
+    <t>SURF nb#001 pg125</t>
   </si>
 </sst>
 </file>
@@ -1995,7 +2023,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
@@ -2745,4 +2773,295 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7655FAAC-DB67-4FD6-AC0F-4F46FB111681}">
+  <dimension ref="A1:L19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.375" defaultRowHeight="45.95" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.375" style="2"/>
+    <col min="3" max="3" width="19.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="21" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="15.375" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3">
+        <v>4</v>
+      </c>
+      <c r="G8" s="3">
+        <v>5</v>
+      </c>
+      <c r="H8" s="3">
+        <v>6</v>
+      </c>
+      <c r="I8" s="3">
+        <v>7</v>
+      </c>
+      <c r="J8" s="3">
+        <v>8</v>
+      </c>
+      <c r="K8" s="3">
+        <v>9</v>
+      </c>
+      <c r="L8" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="3">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="3">
+        <v>3</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="3">
+        <v>4</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="3">
+        <v>5</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="3">
+        <v>6</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="3">
+        <v>7</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="3">
+        <v>8</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="2:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="3">
+        <v>9</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="2:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="3">
+        <v>10</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="2:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B19:L19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/Data/Storage/2018_storage_minus80_information.xlsx
+++ b/Data/Storage/2018_storage_minus80_information.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hannahchu\Documents\GitHub\Proteome_stability_project\Data\Storage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew.nguyen\Desktop\Proteome_stability_project\Data\Storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF95B1C5-AC3D-4EAA-80D8-BB64230C0209}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8815D63F-EF1A-40BD-BD55-0127EBB7BE20}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="0" windowWidth="25365" windowHeight="14640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="0" windowWidth="25365" windowHeight="14640" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="3" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="R3_P7" sheetId="15" r:id="rId4"/>
     <sheet name="R3_P8" sheetId="18" r:id="rId5"/>
     <sheet name="R3_P10" sheetId="20" r:id="rId6"/>
+    <sheet name="R3_P11" sheetId="21" r:id="rId7"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="195">
   <si>
     <t>Date</t>
   </si>
@@ -600,6 +601,24 @@
   </si>
   <si>
     <t>8p10B6HH</t>
+  </si>
+  <si>
+    <t>2018-07-19</t>
+  </si>
+  <si>
+    <t>Proteome stablity fly samples DSPR</t>
+  </si>
+  <si>
+    <t>R3_P11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flies that have been saved for protein isolation </t>
+  </si>
+  <si>
+    <t>SURF nb#001 pg 125</t>
+  </si>
+  <si>
+    <t>B7 (10flies)</t>
   </si>
 </sst>
 </file>
@@ -1995,7 +2014,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
@@ -2440,7 +2459,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D5" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.375" defaultRowHeight="45.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2745,4 +2764,295 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE0EF7AA-2249-4538-A9BD-12A9D53B51E5}">
+  <dimension ref="A1:L19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.375" style="2"/>
+    <col min="3" max="3" width="19.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="21" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="15.375" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3">
+        <v>4</v>
+      </c>
+      <c r="G8" s="3">
+        <v>5</v>
+      </c>
+      <c r="H8" s="3">
+        <v>6</v>
+      </c>
+      <c r="I8" s="3">
+        <v>7</v>
+      </c>
+      <c r="J8" s="3">
+        <v>8</v>
+      </c>
+      <c r="K8" s="3">
+        <v>9</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="3">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="3">
+        <v>3</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="3">
+        <v>4</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="3">
+        <v>5</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="3">
+        <v>6</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="3">
+        <v>7</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="3">
+        <v>8</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="2:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="3">
+        <v>9</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="2:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="3">
+        <v>10</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="2:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B19:L19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data/Storage/2018_storage_minus80_information.xlsx
+++ b/Data/Storage/2018_storage_minus80_information.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew.nguyen\Desktop\Proteome_stability_project\Data\Storage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hannahchu\Documents\GitHub\Proteome_stability_project\Data\Storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED60D266-CEA8-4337-AF32-E77637BCB6E4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24ED9282-99C0-44C2-B812-F193FF8F04E4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="0" windowWidth="25365" windowHeight="14640" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="219">
   <si>
     <t>Date</t>
   </si>
@@ -631,6 +631,66 @@
   </si>
   <si>
     <t>10k after ultra</t>
+  </si>
+  <si>
+    <t>1 (2018-07-23)</t>
+  </si>
+  <si>
+    <t>2 (2018-07-23)</t>
+  </si>
+  <si>
+    <t>3 (2018-07-23)</t>
+  </si>
+  <si>
+    <t>4 (2018-07-23)</t>
+  </si>
+  <si>
+    <t>5 (2018-07-23)</t>
+  </si>
+  <si>
+    <t>6 (2018-07-23)</t>
+  </si>
+  <si>
+    <t>7 (2018-07-23)</t>
+  </si>
+  <si>
+    <t>8 (2018-07-23)</t>
+  </si>
+  <si>
+    <t>9 (2018-07-23)</t>
+  </si>
+  <si>
+    <t>10 (2018-07-23)</t>
+  </si>
+  <si>
+    <t>1 (2018-07-25)</t>
+  </si>
+  <si>
+    <t>2 (2018-07-25)</t>
+  </si>
+  <si>
+    <t>3 (2018-07-25)</t>
+  </si>
+  <si>
+    <t>4 (2018-07-25)</t>
+  </si>
+  <si>
+    <t>6 (2018-07-25)</t>
+  </si>
+  <si>
+    <t>7 (2018-07-25)</t>
+  </si>
+  <si>
+    <t>8 (2018-07-25)</t>
+  </si>
+  <si>
+    <t>9 (2018-07-25)</t>
+  </si>
+  <si>
+    <t>10 (2018-07-25)</t>
+  </si>
+  <si>
+    <t>Ultracent. Protein (2018-07-25)</t>
   </si>
 </sst>
 </file>
@@ -2782,17 +2842,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE0EF7AA-2249-4538-A9BD-12A9D53B51E5}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.375" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.375" style="2"/>
-    <col min="3" max="3" width="19.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="21" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="15.375" style="2"/>
+    <col min="3" max="4" width="20.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="42.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="20.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="15.375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -2917,55 +2981,117 @@
       <c r="D10" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>205</v>
+      </c>
       <c r="L10" s="3"/>
     </row>
     <row r="11" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>3</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>194</v>
+      </c>
       <c r="L11" s="3"/>
     </row>
     <row r="12" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>4</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>212</v>
+      </c>
       <c r="L12" s="3"/>
     </row>
     <row r="13" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>5</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>218</v>
+      </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>

--- a/Data/Storage/2018_storage_minus80_information.xlsx
+++ b/Data/Storage/2018_storage_minus80_information.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hannahchu\Documents\GitHub\Proteome_stability_project\Data\Storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24ED9282-99C0-44C2-B812-F193FF8F04E4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930EFDF6-5DF4-4A28-914F-80057A30B6D4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="0" windowWidth="25365" windowHeight="14640" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="230">
   <si>
     <t>Date</t>
   </si>
@@ -691,6 +691,39 @@
   </si>
   <si>
     <t>Ultracent. Protein (2018-07-25)</t>
+  </si>
+  <si>
+    <t>1 (2018-07-30)</t>
+  </si>
+  <si>
+    <t>2 (2018-07-30)</t>
+  </si>
+  <si>
+    <t>3 (2018-07-30)</t>
+  </si>
+  <si>
+    <t>4 (2018-07-30)</t>
+  </si>
+  <si>
+    <t>5 (2018-07-30)</t>
+  </si>
+  <si>
+    <t>6 (2018-07-30)</t>
+  </si>
+  <si>
+    <t>7 (2018-07-30)</t>
+  </si>
+  <si>
+    <t>8 (2018-07-30)</t>
+  </si>
+  <si>
+    <t>9 (2018-07-30)</t>
+  </si>
+  <si>
+    <t>10 (2018-07-30)</t>
+  </si>
+  <si>
+    <t>Ultracent. Protein (2018-07-30)</t>
   </si>
 </sst>
 </file>
@@ -2843,7 +2876,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.375" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -3017,36 +3050,20 @@
       <c r="E11" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>194</v>
-      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
     <row r="12" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>4</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>194</v>
-      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
         <v>194</v>
       </c>
@@ -3092,23 +3109,45 @@
       <c r="H13" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
+      <c r="I13" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>221</v>
+      </c>
       <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <v>6</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>229</v>
+      </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
